--- a/record.xlsx
+++ b/record.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\xls-to-word\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ورقة2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ورقة3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
+    <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,52 +31,52 @@
     <t xml:space="preserve">اسم الصنف </t>
   </si>
   <si>
-    <t xml:space="preserve">رقم الصفحة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسم الدفتر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المخزن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بلوك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">راك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكمية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الوحدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز ملاحة أقمار صناعية</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans Arabic UI"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ق</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+    <t>رقم الصفحة</t>
+  </si>
+  <si>
+    <t>اسم الدفتر</t>
+  </si>
+  <si>
+    <t>المخزن</t>
+  </si>
+  <si>
+    <t>بلوك</t>
+  </si>
+  <si>
+    <t>راك</t>
+  </si>
+  <si>
+    <t>رف</t>
+  </si>
+  <si>
+    <t>الكمية</t>
+  </si>
+  <si>
+    <t>الوحدة</t>
+  </si>
+  <si>
+    <t>جهاز ملاحة أقمار صناعية</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans Arabic UI"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ق</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -92,11 +96,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">EMI</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">عدد</t>
+      <t>EMI</t>
+    </r>
+  </si>
+  <si>
+    <t>عدد</t>
   </si>
   <si>
     <r>
@@ -117,7 +121,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GPS</t>
+      <t>GPS</t>
     </r>
   </si>
   <si>
@@ -159,7 +163,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">FX-850</t>
+      <t>FX-850</t>
     </r>
   </si>
   <si>
@@ -181,7 +185,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LHFLOHF</t>
+      <t>LHFLOHF</t>
     </r>
   </si>
   <si>
@@ -203,7 +207,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LINIAGC IF MILOG</t>
+      <t>LINIAGC IF MILOG</t>
     </r>
   </si>
   <si>
@@ -247,7 +251,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4-1-10-20</t>
+      <t>4-1-10-20</t>
     </r>
   </si>
   <si>
@@ -269,7 +273,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">401-014-750</t>
+      <t>401-014-750</t>
     </r>
   </si>
   <si>
@@ -291,7 +295,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">201-013-250</t>
+      <t>201-013-250</t>
     </r>
   </si>
   <si>
@@ -313,7 +317,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SCJ-2112</t>
+      <t>SCJ-2112</t>
     </r>
   </si>
   <si>
@@ -335,7 +339,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">001-046-750</t>
+      <t>001-046-750</t>
     </r>
   </si>
   <si>
@@ -357,7 +361,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SLC-2111</t>
+      <t>SLC-2111</t>
     </r>
   </si>
   <si>
@@ -379,7 +383,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">001-032-711</t>
+      <t>001-032-711</t>
     </r>
   </si>
   <si>
@@ -421,7 +425,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">00200-35</t>
+      <t>00200-35</t>
     </r>
   </si>
   <si>
@@ -463,7 +467,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1-00133-35</t>
+      <t>1-00133-35</t>
     </r>
   </si>
   <si>
@@ -495,17 +499,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">قطعة طرز</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MH 500-00</t>
+      <t>قطعة طرز</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>MH 500-00</t>
     </r>
   </si>
   <si>
@@ -527,7 +531,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TTT5050</t>
+      <t>TTT5050</t>
     </r>
   </si>
   <si>
@@ -549,7 +553,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VHFIVHF</t>
+      <t>VHFIVHF</t>
     </r>
   </si>
   <si>
@@ -571,7 +575,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VHFIVHF</t>
+      <t>VHFIVHF</t>
     </r>
   </si>
   <si>
@@ -613,7 +617,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">HF</t>
+      <t>HF</t>
     </r>
   </si>
   <si>
@@ -635,7 +639,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SGP211</t>
+      <t>SGP211</t>
     </r>
   </si>
   <si>
@@ -657,7 +661,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MICLHF</t>
+      <t>MICLHF</t>
     </r>
   </si>
   <si>
@@ -817,7 +821,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">مرشح ضوضاء</t>
+    <t>مرشح ضوضاء</t>
   </si>
   <si>
     <r>
@@ -838,11 +842,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6904B</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">مروحة تبريد</t>
+      <t>6904B</t>
+    </r>
+  </si>
+  <si>
+    <t>مروحة تبريد</t>
   </si>
   <si>
     <r>
@@ -863,7 +867,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">KEL</t>
+      <t>KEL</t>
     </r>
   </si>
   <si>
@@ -885,7 +889,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">RLO2</t>
+      <t>RLO2</t>
     </r>
   </si>
   <si>
@@ -907,11 +911,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">RLO2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز قياس مستوى الاشارة</t>
+      <t>RLO2</t>
+    </r>
+  </si>
+  <si>
+    <t>جهاز قياس مستوى الاشارة</t>
   </si>
   <si>
     <r>
@@ -942,7 +946,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">قراءة وكتابة</t>
+      <t>قراءة وكتابة</t>
     </r>
   </si>
   <si>
@@ -964,7 +968,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11848-BRP54</t>
+      <t>11848-BRP54</t>
     </r>
   </si>
   <si>
@@ -986,11 +990,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">00-12137-70</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">محدد نهاية</t>
+      <t>00-12137-70</t>
+    </r>
+  </si>
+  <si>
+    <t>محدد نهاية</t>
   </si>
   <si>
     <r>
@@ -1021,11 +1025,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">لمبة</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">مجموعة كابلات توصيل</t>
+      <t>لمبة</t>
+    </r>
+  </si>
+  <si>
+    <t>مجموعة كابلات توصيل</t>
   </si>
   <si>
     <r>
@@ -1046,7 +1050,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">UP (A)</t>
+      <t>UP (A)</t>
     </r>
   </si>
   <si>
@@ -1068,7 +1072,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PN (A)</t>
+      <t>PN (A)</t>
     </r>
   </si>
   <si>
@@ -1090,7 +1094,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">RLO2</t>
+      <t>RLO2</t>
     </r>
   </si>
   <si>
@@ -1142,11 +1146,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">فولت</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">مجموعة تحريك هد القراءة</t>
+      <t>فولت</t>
+    </r>
+  </si>
+  <si>
+    <t>مجموعة تحريك هد القراءة</t>
   </si>
   <si>
     <r>
@@ -1167,7 +1171,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">RLO2</t>
+      <t>RLO2</t>
     </r>
   </si>
   <si>
@@ -1189,7 +1193,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">00-13534-54</t>
+      <t>00-13534-54</t>
     </r>
   </si>
   <si>
@@ -1211,7 +1215,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">14025000-54</t>
+      <t>14025000-54</t>
     </r>
   </si>
   <si>
@@ -1233,7 +1237,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">00-12130-70</t>
+      <t>00-12130-70</t>
     </r>
   </si>
   <si>
@@ -1265,7 +1269,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">زراع</t>
+      <t>زراع</t>
     </r>
   </si>
   <si>
@@ -1307,7 +1311,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1000-500 MH</t>
+      <t>1000-500 MH</t>
     </r>
   </si>
   <si>
@@ -1343,10 +1347,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####</t>
+    <t>###</t>
+  </si>
+  <si>
+    <t>####</t>
   </si>
   <si>
     <r>
@@ -1367,7 +1371,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">02HEO3APY</t>
+      <t>02HEO3APY</t>
     </r>
   </si>
   <si>
@@ -1389,7 +1393,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">b8000GPLL</t>
+      <t>b8000GPLL</t>
     </r>
   </si>
   <si>
@@ -1431,7 +1435,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">M7762</t>
+      <t>M7762</t>
     </r>
   </si>
   <si>
@@ -1453,7 +1457,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">19548-70</t>
+      <t>19548-70</t>
     </r>
   </si>
   <si>
@@ -1475,7 +1479,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">140K0489</t>
+      <t>140K0489</t>
     </r>
   </si>
   <si>
@@ -1497,7 +1501,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">140K04850</t>
+      <t>140K04850</t>
     </r>
   </si>
   <si>
@@ -1519,7 +1523,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ACTG</t>
+      <t>ACTG</t>
     </r>
   </si>
   <si>
@@ -1541,11 +1545,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">KEL</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">كارت ربط زيروكس</t>
+      <t>KEL</t>
+    </r>
+  </si>
+  <si>
+    <t>كارت ربط زيروكس</t>
   </si>
   <si>
     <t xml:space="preserve">كارت التحكم في وحدة ادارة الاسطوانة المرنة </t>
@@ -1569,17 +1573,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">35E703208</t>
+      <t>35E703208</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">كارت التحكم لجهاز زيروكس </t>
   </si>
   <si>
-    <t xml:space="preserve">كارت لوحة التشغيل زيروكس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مجموعة هد الطباعة</t>
+    <t>كارت لوحة التشغيل زيروكس</t>
+  </si>
+  <si>
+    <t>مجموعة هد الطباعة</t>
   </si>
   <si>
     <r>
@@ -1600,11 +1604,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VS240</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">مجموعة كابل يونوبس</t>
+      <t>VS240</t>
+    </r>
+  </si>
+  <si>
+    <t>مجموعة كابل يونوبس</t>
   </si>
   <si>
     <r>
@@ -1625,39 +1629,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VT240</t>
+      <t>VT240</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1696,7 +1682,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1704,61 +1690,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Accent1" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Accent1" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1817,35 +1766,309 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="6.85"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="9" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,1943 +2097,1943 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="n">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="0" t="n">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="0" t="n">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="0" t="n">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="0" t="n">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="0" t="n">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="0" t="n">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0" t="n">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="0" t="n">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="0" t="n">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="0" t="n">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="0" t="n">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" s="0" t="n">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" s="0" t="n">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" s="0" t="n">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="0" t="n">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>40</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" s="0" t="n">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>41</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="0" t="n">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="0" t="n">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="0" t="n">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" s="0" t="n">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" s="0" t="n">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>46</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" s="0" t="n">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>47</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="0" t="n">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>48</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H48" s="0" t="n">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>49</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H49" s="0" t="n">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>50</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H50" s="0" t="n">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51">
         <v>4</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F52" s="0" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>53</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H53" s="0" t="n">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H54" s="0" t="n">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H55" s="0" t="n">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>56</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H56" s="0" t="n">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>57</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" s="0" t="n">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H58" s="0" t="n">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>59</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" s="0" t="n">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>60</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G60" s="0" t="n">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
         <v>4</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G61" s="0" t="n">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
         <v>4</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>62</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G62" s="0" t="n">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
         <v>4</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G63" s="0" t="n">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
         <v>4</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G64" s="0" t="n">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>65</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G65" s="0" t="n">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
         <v>4</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>66</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G66" s="0" t="n">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
         <v>5</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>67</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G67" s="0" t="n">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
         <v>5</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>68</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G68" s="0" t="n">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
         <v>5</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3818,58 +4041,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>